--- a/Unit Test/TestPlan-tuanva_20204618.xlsx
+++ b/Unit Test/TestPlan-tuanva_20204618.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuan\Workspace\tkxdpm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuan\SoICT\20231\thiet-ke-xay-dung-phan-mem\code\aims\TKXDPM.KHMT.20231-24\Unit Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1406489-1B55-4B9B-BB36-F57F5FB8B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE32A76-1998-43D6-8078-2F3E51590027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="204">
   <si>
     <t>1. Introduction</t>
   </si>
@@ -460,6 +460,238 @@
   </si>
   <si>
     <t>5.2. Test Case Specification for "Create Book"</t>
+  </si>
+  <si>
+    <t>create book</t>
+  </si>
+  <si>
+    <t>Vu Anh Tuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login and access management screen successfully </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>image (upload)</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>cover type</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>publish date</t>
+  </si>
+  <si>
+    <t>num of pages</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>book category</t>
+  </si>
+  <si>
+    <t>book99</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>assets/images/upload</t>
+  </si>
+  <si>
+    <t>Vu Tuan</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>Tieng Viet</t>
+  </si>
+  <si>
+    <t>Truyen tranh</t>
+  </si>
+  <si>
+    <t>create book successfully</t>
+  </si>
+  <si>
+    <t>click create book</t>
+  </si>
+  <si>
+    <t>show book form</t>
+  </si>
+  <si>
+    <t>as expected</t>
+  </si>
+  <si>
+    <t>fill the form</t>
+  </si>
+  <si>
+    <t>no error</t>
+  </si>
+  <si>
+    <t>click save</t>
+  </si>
+  <si>
+    <t>create succesfully</t>
+  </si>
+  <si>
+    <t>cancel create</t>
+  </si>
+  <si>
+    <t>click cancel</t>
+  </si>
+  <si>
+    <t>return manage screen</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>recordLabel</t>
+  </si>
+  <si>
+    <t>musicType</t>
+  </si>
+  <si>
+    <t>releaseDate</t>
+  </si>
+  <si>
+    <t>click create cd</t>
+  </si>
+  <si>
+    <t>show cd form</t>
+  </si>
+  <si>
+    <t>create cd successfully</t>
+  </si>
+  <si>
+    <t>create cd</t>
+  </si>
+  <si>
+    <t>cd99</t>
+  </si>
+  <si>
+    <t>create dvd</t>
+  </si>
+  <si>
+    <t>discType</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>studio</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>filmType</t>
+  </si>
+  <si>
+    <t>dvd99</t>
+  </si>
+  <si>
+    <t>disc</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>create dvd successfully</t>
+  </si>
+  <si>
+    <t>click create dvd</t>
+  </si>
+  <si>
+    <t>show dvd form</t>
+  </si>
+  <si>
+    <t>5.4. Test Case Specification for "Create DVD"</t>
+  </si>
+  <si>
+    <t>5.3. Test Case Specification for "Create CD"</t>
+  </si>
+  <si>
+    <t>5.5. Test Case Specification for "Create Book"</t>
+  </si>
+  <si>
+    <t>edit book</t>
+  </si>
+  <si>
+    <t>edit book successfully</t>
+  </si>
+  <si>
+    <t>click edit one book</t>
+  </si>
+  <si>
+    <t>save succesfully</t>
+  </si>
+  <si>
+    <t>edit cd</t>
+  </si>
+  <si>
+    <t>click edit one cd</t>
+  </si>
+  <si>
+    <t>edit cd successfully</t>
+  </si>
+  <si>
+    <t>cancel edit</t>
+  </si>
+  <si>
+    <t>5.6. Test Case Specification for "Edit CD"</t>
+  </si>
+  <si>
+    <t>edit dvd</t>
+  </si>
+  <si>
+    <t>edit dvd successfully</t>
+  </si>
+  <si>
+    <t>click edit one dvd</t>
+  </si>
+  <si>
+    <t>5.7. Test Case+A258:H289 Specification for "Create DVD"</t>
+  </si>
+  <si>
+    <t>5.8. Test Case Specification for "Delete Media"</t>
+  </si>
+  <si>
+    <t>delete media</t>
+  </si>
+  <si>
+    <t>delete successfully</t>
+  </si>
+  <si>
+    <t>click delete one media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete successfully
+</t>
   </si>
 </sst>
 </file>
@@ -674,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -749,6 +981,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -756,7 +997,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -918,6 +1159,15 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -933,29 +1183,11 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -971,22 +1203,43 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1518,9 +1771,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1558,7 +1811,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1664,7 +1917,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1806,7 +2059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3655,13 +3908,13 @@
       <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
@@ -3703,13 +3956,13 @@
       <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
@@ -3790,13 +4043,13 @@
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="21"/>
@@ -3853,27 +4106,27 @@
         <v>22</v>
       </c>
       <c r="D36" s="17">
-        <f>COUNTIF(D39:D45,"=x")</f>
+        <f t="shared" ref="D36:I36" si="3">COUNTIF(D39:D45,"=x")</f>
         <v>2</v>
       </c>
       <c r="E36" s="17">
-        <f>COUNTIF(E39:E45,"=x")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" s="17">
-        <f>COUNTIF(F39:F45,"=x")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G36" s="17">
-        <f>COUNTIF(G39:G45,"=x")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H36" s="17">
-        <f>COUNTIF(H39:H45,"=x")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="17">
-        <f>COUNTIF(I39:I45,"=x")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3885,7 +4138,7 @@
         <v>89</v>
       </c>
       <c r="C37" s="17">
-        <f>COUNTIF(D37:R37,"=x")</f>
+        <f t="shared" ref="C37:C45" si="4">COUNTIF(D37:R37,"=x")</f>
         <v>1</v>
       </c>
       <c r="D37" s="19"/>
@@ -3905,7 +4158,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="17">
-        <f>COUNTIF(D38:R38,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -3925,7 +4178,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="17">
-        <f>COUNTIF(D39:R39,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -3945,7 +4198,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="17">
-        <f>COUNTIF(D40:R40,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -3965,7 +4218,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="17">
-        <f>COUNTIF(D41:R41,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D41" s="19"/>
@@ -3985,7 +4238,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="17">
-        <f>COUNTIF(D42:R42,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D42" s="19"/>
@@ -4005,7 +4258,7 @@
         <v>95</v>
       </c>
       <c r="C43" s="17">
-        <f>COUNTIF(D43:R43,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43" s="19"/>
@@ -4025,7 +4278,7 @@
         <v>96</v>
       </c>
       <c r="C44" s="17">
-        <f>COUNTIF(D44:R44,"=x")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D44" s="19"/>
@@ -4043,7 +4296,7 @@
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17">
-        <f>COUNTIF(D45:R45,"=x")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D45" s="19"/>
@@ -4098,13 +4351,13 @@
       <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:7" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A52" s="10" t="s">
@@ -4146,13 +4399,13 @@
       <c r="G54" s="52"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="10" t="s">
@@ -4194,13 +4447,13 @@
       <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="10" t="s">
@@ -4243,6 +4496,32 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="C57:E57"/>
@@ -4251,32 +4530,6 @@
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4286,10 +4539,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A307" zoomScale="76" zoomScaleNormal="85" zoomScalePageLayoutView="76" workbookViewId="0">
+      <selection activeCell="I321" sqref="I321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4311,17 +4564,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="27" t="s">
         <v>89</v>
       </c>
@@ -4331,21 +4584,21 @@
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="28" t="s">
         <v>42</v>
       </c>
@@ -4367,10 +4620,10 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="26" t="s">
         <v>59</v>
       </c>
@@ -4395,21 +4648,21 @@
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="62" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="28" t="s">
         <v>47</v>
       </c>
@@ -4430,35 +4683,35 @@
       <c r="A10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="32">
         <v>2</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
@@ -4476,15 +4729,15 @@
       <c r="A14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -4494,11 +4747,11 @@
       <c r="A15" s="32">
         <v>1</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -4506,21 +4759,21 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="34"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="26" t="s">
         <v>120</v>
       </c>
@@ -4536,142 +4789,152 @@
       <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="78" t="s">
+      <c r="E19" s="72"/>
+      <c r="F19" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="71" t="s">
+      <c r="G19" s="74"/>
+      <c r="H19" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="32">
         <v>1</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69" t="s">
+      <c r="C21" s="77"/>
+      <c r="D21" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69" t="s">
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="32">
         <v>2</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69" t="s">
+      <c r="G22" s="60"/>
+      <c r="H22" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="32">
         <v>3</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="77"/>
+      <c r="D23" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="64" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="64" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="79"/>
       <c r="H28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -4687,10 +4950,10 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="26"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -4713,17 +4976,17 @@
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="28" t="s">
         <v>65</v>
       </c>
@@ -4742,23 +5005,25 @@
       <c r="A34" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="32">
         <v>1</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="B35" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="27"/>
@@ -4776,15 +5041,15 @@
       <c r="A37" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -4794,110 +5059,4697 @@
       <c r="A38" s="32">
         <v>1</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
+      <c r="B38" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="83"/>
+      <c r="D38" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="34"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="A39" s="32">
+        <v>2</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="A40" s="32">
+        <v>3</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="60">
+        <v>13</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="C41" s="34"/>
+      <c r="A41" s="32">
+        <v>4</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="60">
+        <v>12</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
+      <c r="A42" s="32">
+        <v>5</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="82"/>
+      <c r="D42" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="72"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
+      <c r="A43" s="32">
+        <v>6</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="82"/>
+      <c r="D43" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="32">
+        <v>7</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="82"/>
+      <c r="D44" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="32">
+        <v>8</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="82"/>
+      <c r="D45" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="32">
+        <v>9</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="84">
+        <v>45265</v>
+      </c>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="32">
+        <v>10</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="82"/>
+      <c r="D47" s="60">
+        <v>123</v>
+      </c>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="32">
+        <v>11</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="82"/>
+      <c r="D48" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="32">
+        <v>12</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="32">
+        <v>13</v>
+      </c>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="32">
+        <v>14</v>
+      </c>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="80"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="80"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="80"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="34"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="68"/>
+      <c r="C56" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C57" s="34"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="72"/>
+      <c r="F58" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="74"/>
+      <c r="H58" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="69"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="32">
         <v>1</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
+      <c r="B60" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="77"/>
+      <c r="D60" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="32">
+        <v>2</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="77"/>
+      <c r="D61" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="32">
+        <v>3</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="77"/>
+      <c r="D62" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="68"/>
+      <c r="C64" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C65" s="34"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="72"/>
+      <c r="F66" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="74"/>
+      <c r="H66" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="32">
+        <v>1</v>
+      </c>
+      <c r="B68" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="77"/>
+      <c r="D68" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="32">
+        <v>2</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="32">
+        <v>3</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="77"/>
+      <c r="D70" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A74" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="76"/>
+      <c r="C74" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="76"/>
+      <c r="F74" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="76"/>
+      <c r="C75" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="76"/>
+      <c r="F75" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="79"/>
+      <c r="H75" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="63"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="63"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="63"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="20"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" s="32">
+        <v>1</v>
+      </c>
+      <c r="B82" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" s="32">
+        <v>1</v>
+      </c>
+      <c r="B85" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="83"/>
+      <c r="D85" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" s="32">
+        <v>2</v>
+      </c>
+      <c r="B86" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="82"/>
+      <c r="D86" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" s="32">
+        <v>3</v>
+      </c>
+      <c r="B87" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="82"/>
+      <c r="D87" s="60">
+        <v>13</v>
+      </c>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" s="32">
+        <v>4</v>
+      </c>
+      <c r="B88" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="82"/>
+      <c r="D88" s="60">
+        <v>12</v>
+      </c>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" s="32">
+        <v>5</v>
+      </c>
+      <c r="B89" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="82"/>
+      <c r="D89" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" s="32">
+        <v>6</v>
+      </c>
+      <c r="B90" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="82"/>
+      <c r="D90" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" s="32">
+        <v>7</v>
+      </c>
+      <c r="B91" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="82"/>
+      <c r="D91" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" s="32">
+        <v>8</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="82"/>
+      <c r="D92" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A93" s="32">
+        <v>9</v>
+      </c>
+      <c r="B93" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="82"/>
+      <c r="D93" s="84">
+        <v>45265</v>
+      </c>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" s="32">
+        <v>10</v>
+      </c>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A95" s="32">
+        <v>11</v>
+      </c>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A96" s="80"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A97" s="80"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A98" s="80"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A99" s="34"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A100" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="68"/>
+      <c r="C100" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C101" s="34"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A102" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="69"/>
+      <c r="D102" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="72"/>
+      <c r="F102" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" s="74"/>
+      <c r="H102" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A103" s="69"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A104" s="32">
+        <v>1</v>
+      </c>
+      <c r="B104" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" s="32">
+        <v>2</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="77"/>
+      <c r="D105" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" s="32">
+        <v>3</v>
+      </c>
+      <c r="B106" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" s="77"/>
+      <c r="D106" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A108" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="68"/>
+      <c r="C108" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C109" s="34"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A110" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="69"/>
+      <c r="D110" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="72"/>
+      <c r="F110" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" s="74"/>
+      <c r="H110" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" s="69"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" s="32">
+        <v>1</v>
+      </c>
+      <c r="B112" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="77"/>
+      <c r="D112" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112" s="60"/>
+      <c r="J112" s="60"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A113" s="32">
+        <v>2</v>
+      </c>
+      <c r="B113" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="77"/>
+      <c r="D113" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A114" s="32">
+        <v>3</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="77"/>
+      <c r="D114" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A119" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="76"/>
+      <c r="C119" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="76"/>
+      <c r="F119" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A120" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="76"/>
+      <c r="C120" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" s="76"/>
+      <c r="F120" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G120" s="79"/>
+      <c r="H120" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I120" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" s="29"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A122" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="63"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A124" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="63"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="63"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124" s="27"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="20"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A126" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A127" s="32">
+        <v>1</v>
+      </c>
+      <c r="B127" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A129" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E129" s="78"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A130" s="32">
+        <v>1</v>
+      </c>
+      <c r="B130" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="83"/>
+      <c r="D130" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A131" s="32">
+        <v>2</v>
+      </c>
+      <c r="B131" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="86"/>
+      <c r="D131" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="60"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A132" s="32">
+        <v>3</v>
+      </c>
+      <c r="B132" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="82"/>
+      <c r="D132" s="60">
+        <v>13</v>
+      </c>
+      <c r="E132" s="60"/>
+      <c r="F132" s="60"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A133" s="32">
+        <v>4</v>
+      </c>
+      <c r="B133" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="82"/>
+      <c r="D133" s="60">
+        <v>12</v>
+      </c>
+      <c r="E133" s="60"/>
+      <c r="F133" s="60"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A134" s="32">
+        <v>5</v>
+      </c>
+      <c r="B134" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="82"/>
+      <c r="D134" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134" s="60"/>
+      <c r="F134" s="60"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A135" s="32">
+        <v>6</v>
+      </c>
+      <c r="B135" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C135" s="82"/>
+      <c r="D135" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="60"/>
+      <c r="F135" s="60"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A136" s="32">
+        <v>7</v>
+      </c>
+      <c r="B136" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" s="82"/>
+      <c r="D136" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="60"/>
+      <c r="F136" s="60"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" s="32">
+        <v>8</v>
+      </c>
+      <c r="B137" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" s="82"/>
+      <c r="D137" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="60"/>
+      <c r="F137" s="60"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A138" s="32">
+        <v>9</v>
+      </c>
+      <c r="B138" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="82"/>
+      <c r="D138" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A139" s="32">
+        <v>10</v>
+      </c>
+      <c r="B139" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C139" s="82"/>
+      <c r="D139" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A140" s="32">
+        <v>11</v>
+      </c>
+      <c r="B140" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="82"/>
+      <c r="D140" s="84">
+        <v>45265</v>
+      </c>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A141" s="32">
+        <v>12</v>
+      </c>
+      <c r="B141" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" s="82"/>
+      <c r="D141" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E141" s="60"/>
+      <c r="F141" s="60"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A142" s="32">
+        <v>13</v>
+      </c>
+      <c r="B142" s="82"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A143" s="32">
+        <v>14</v>
+      </c>
+      <c r="B143" s="82"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="27"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A144" s="80"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A145" s="80"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A146" s="80"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="81"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A147" s="34"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A148" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B148" s="68"/>
+      <c r="C148" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C149" s="34"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A150" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B150" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="69"/>
+      <c r="D150" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" s="72"/>
+      <c r="F150" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" s="74"/>
+      <c r="H150" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I150" s="59"/>
+      <c r="J150" s="59"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A151" s="69"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="73"/>
+      <c r="E151" s="73"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="59"/>
+      <c r="J151" s="59"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A152" s="32">
+        <v>1</v>
+      </c>
+      <c r="B152" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" s="77"/>
+      <c r="D152" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E152" s="60"/>
+      <c r="F152" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G152" s="60"/>
+      <c r="H152" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I152" s="60"/>
+      <c r="J152" s="60"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A153" s="32">
+        <v>2</v>
+      </c>
+      <c r="B153" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="77"/>
+      <c r="D153" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A154" s="32">
+        <v>3</v>
+      </c>
+      <c r="B154" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="77"/>
+      <c r="D154" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A156" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="68"/>
+      <c r="C156" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C157" s="34"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A158" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" s="69"/>
+      <c r="D158" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E158" s="72"/>
+      <c r="F158" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G158" s="74"/>
+      <c r="H158" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I158" s="59"/>
+      <c r="J158" s="59"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A159" s="69"/>
+      <c r="B159" s="70"/>
+      <c r="C159" s="70"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="74"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="59"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160" s="32">
+        <v>1</v>
+      </c>
+      <c r="B160" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" s="77"/>
+      <c r="D160" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E160" s="60"/>
+      <c r="F160" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161" s="32">
+        <v>2</v>
+      </c>
+      <c r="B161" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="77"/>
+      <c r="D161" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E161" s="60"/>
+      <c r="F161" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A162" s="32">
+        <v>3</v>
+      </c>
+      <c r="B162" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" s="77"/>
+      <c r="D162" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A166" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A167" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B167" s="76"/>
+      <c r="C167" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E167" s="76"/>
+      <c r="F167" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A168" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" s="76"/>
+      <c r="C168" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D168" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" s="76"/>
+      <c r="F168" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G168" s="79"/>
+      <c r="H168" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I168" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J168" s="29"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A169" s="27"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A170" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="63"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A171" s="30"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A172" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" s="63"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E172" s="63"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I172" s="27"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A173" s="30"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="20"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A174" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="67"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="67"/>
+      <c r="F174" s="67"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A175" s="32">
+        <v>1</v>
+      </c>
+      <c r="B175" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="60"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A176" s="27"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A177" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C177" s="78"/>
+      <c r="D177" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E177" s="78"/>
+      <c r="F177" s="78"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A178" s="32">
+        <v>1</v>
+      </c>
+      <c r="B178" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="83"/>
+      <c r="D178" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E178" s="60"/>
+      <c r="F178" s="60"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A179" s="32">
+        <v>2</v>
+      </c>
+      <c r="B179" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C179" s="82"/>
+      <c r="D179" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E179" s="60"/>
+      <c r="F179" s="60"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A180" s="32">
+        <v>3</v>
+      </c>
+      <c r="B180" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180" s="82"/>
+      <c r="D180" s="60">
+        <v>13</v>
+      </c>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A181" s="32">
+        <v>4</v>
+      </c>
+      <c r="B181" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C181" s="82"/>
+      <c r="D181" s="60">
+        <v>12</v>
+      </c>
+      <c r="E181" s="60"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A182" s="32">
+        <v>5</v>
+      </c>
+      <c r="B182" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="82"/>
+      <c r="D182" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E182" s="60"/>
+      <c r="F182" s="60"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A183" s="32">
+        <v>6</v>
+      </c>
+      <c r="B183" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C183" s="82"/>
+      <c r="D183" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A184" s="32">
+        <v>7</v>
+      </c>
+      <c r="B184" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="82"/>
+      <c r="D184" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E184" s="60"/>
+      <c r="F184" s="60"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A185" s="32">
+        <v>8</v>
+      </c>
+      <c r="B185" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C185" s="82"/>
+      <c r="D185" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E185" s="60"/>
+      <c r="F185" s="60"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A186" s="32">
+        <v>9</v>
+      </c>
+      <c r="B186" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C186" s="82"/>
+      <c r="D186" s="84">
+        <v>45265</v>
+      </c>
+      <c r="E186" s="60"/>
+      <c r="F186" s="60"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A187" s="32">
+        <v>10</v>
+      </c>
+      <c r="B187" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C187" s="82"/>
+      <c r="D187" s="60">
+        <v>123</v>
+      </c>
+      <c r="E187" s="60"/>
+      <c r="F187" s="60"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A188" s="32">
+        <v>11</v>
+      </c>
+      <c r="B188" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C188" s="82"/>
+      <c r="D188" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E188" s="60"/>
+      <c r="F188" s="60"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A189" s="32">
+        <v>12</v>
+      </c>
+      <c r="B189" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C189" s="82"/>
+      <c r="D189" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E189" s="60"/>
+      <c r="F189" s="60"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A190" s="32">
+        <v>13</v>
+      </c>
+      <c r="B190" s="82"/>
+      <c r="C190" s="82"/>
+      <c r="D190" s="60"/>
+      <c r="E190" s="60"/>
+      <c r="F190" s="60"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A191" s="32">
+        <v>14</v>
+      </c>
+      <c r="B191" s="82"/>
+      <c r="C191" s="82"/>
+      <c r="D191" s="60"/>
+      <c r="E191" s="60"/>
+      <c r="F191" s="60"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A192" s="80"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="82"/>
+      <c r="D192" s="81"/>
+      <c r="E192" s="81"/>
+      <c r="F192" s="81"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A193" s="80"/>
+      <c r="B193" s="81"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="81"/>
+      <c r="F193" s="81"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A194" s="80"/>
+      <c r="B194" s="81"/>
+      <c r="C194" s="81"/>
+      <c r="D194" s="81"/>
+      <c r="E194" s="81"/>
+      <c r="F194" s="81"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A195" s="34"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="61"/>
+      <c r="E195" s="61"/>
+      <c r="F195" s="61"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A196" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196" s="68"/>
+      <c r="C196" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="27"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C197" s="34"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A198" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" s="69"/>
+      <c r="D198" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E198" s="72"/>
+      <c r="F198" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G198" s="74"/>
+      <c r="H198" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I198" s="59"/>
+      <c r="J198" s="59"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A199" s="69"/>
+      <c r="B199" s="70"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="73"/>
+      <c r="E199" s="73"/>
+      <c r="F199" s="74"/>
+      <c r="G199" s="74"/>
+      <c r="H199" s="59"/>
+      <c r="I199" s="59"/>
+      <c r="J199" s="59"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A200" s="32">
+        <v>1</v>
+      </c>
+      <c r="B200" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C200" s="77"/>
+      <c r="D200" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200" s="60"/>
+      <c r="F200" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G200" s="60"/>
+      <c r="H200" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I200" s="60"/>
+      <c r="J200" s="60"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A201" s="32">
+        <v>2</v>
+      </c>
+      <c r="B201" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C201" s="77"/>
+      <c r="D201" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E201" s="60"/>
+      <c r="F201" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G201" s="60"/>
+      <c r="H201" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I201" s="60"/>
+      <c r="J201" s="60"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A202" s="32">
+        <v>3</v>
+      </c>
+      <c r="B202" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C202" s="77"/>
+      <c r="D202" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E202" s="60"/>
+      <c r="F202" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G202" s="60"/>
+      <c r="H202" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I202" s="60"/>
+      <c r="J202" s="60"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A204" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B204" s="68"/>
+      <c r="C204" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C205" s="34"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A206" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" s="69"/>
+      <c r="D206" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E206" s="72"/>
+      <c r="F206" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G206" s="74"/>
+      <c r="H206" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I206" s="59"/>
+      <c r="J206" s="59"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A207" s="69"/>
+      <c r="B207" s="70"/>
+      <c r="C207" s="70"/>
+      <c r="D207" s="73"/>
+      <c r="E207" s="73"/>
+      <c r="F207" s="74"/>
+      <c r="G207" s="74"/>
+      <c r="H207" s="59"/>
+      <c r="I207" s="59"/>
+      <c r="J207" s="59"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A208" s="32">
+        <v>1</v>
+      </c>
+      <c r="B208" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C208" s="77"/>
+      <c r="D208" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E208" s="60"/>
+      <c r="F208" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G208" s="60"/>
+      <c r="H208" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I208" s="60"/>
+      <c r="J208" s="60"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A209" s="32">
+        <v>2</v>
+      </c>
+      <c r="B209" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C209" s="77"/>
+      <c r="D209" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E209" s="60"/>
+      <c r="F209" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G209" s="60"/>
+      <c r="H209" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I209" s="60"/>
+      <c r="J209" s="60"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A210" s="32">
+        <v>3</v>
+      </c>
+      <c r="B210" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C210" s="77"/>
+      <c r="D210" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E210" s="60"/>
+      <c r="F210" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G210" s="60"/>
+      <c r="H210" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I210" s="60"/>
+      <c r="J210" s="60"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A213" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A214" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B214" s="76"/>
+      <c r="C214" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" s="76"/>
+      <c r="F214" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="27"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A215" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" s="76"/>
+      <c r="C215" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D215" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E215" s="76"/>
+      <c r="F215" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G215" s="79"/>
+      <c r="H215" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I215" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J215" s="29"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A216" s="27"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="27"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A217" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B217" s="63"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="27"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A218" s="30"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="27"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A219" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" s="63"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E219" s="63"/>
+      <c r="F219" s="65"/>
+      <c r="G219" s="66"/>
+      <c r="H219" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I219" s="27"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="20"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="27"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A221" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B221" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="67"/>
+      <c r="D221" s="67"/>
+      <c r="E221" s="67"/>
+      <c r="F221" s="67"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A222" s="32">
+        <v>1</v>
+      </c>
+      <c r="B222" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C222" s="60"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="60"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A223" s="27"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="27"/>
+      <c r="J223" s="27"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A224" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B224" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C224" s="78"/>
+      <c r="D224" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E224" s="78"/>
+      <c r="F224" s="78"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="27"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A225" s="32">
+        <v>1</v>
+      </c>
+      <c r="B225" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C225" s="83"/>
+      <c r="D225" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E225" s="60"/>
+      <c r="F225" s="60"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="27"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A226" s="32">
+        <v>2</v>
+      </c>
+      <c r="B226" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C226" s="82"/>
+      <c r="D226" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E226" s="60"/>
+      <c r="F226" s="60"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="27"/>
+      <c r="I226" s="27"/>
+      <c r="J226" s="27"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A227" s="32">
+        <v>3</v>
+      </c>
+      <c r="B227" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C227" s="82"/>
+      <c r="D227" s="60">
+        <v>13</v>
+      </c>
+      <c r="E227" s="60"/>
+      <c r="F227" s="60"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="27"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A228" s="32">
+        <v>4</v>
+      </c>
+      <c r="B228" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C228" s="82"/>
+      <c r="D228" s="60">
+        <v>12</v>
+      </c>
+      <c r="E228" s="60"/>
+      <c r="F228" s="60"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A229" s="32">
+        <v>5</v>
+      </c>
+      <c r="B229" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C229" s="82"/>
+      <c r="D229" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E229" s="60"/>
+      <c r="F229" s="60"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="27"/>
+      <c r="J229" s="27"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A230" s="32">
+        <v>6</v>
+      </c>
+      <c r="B230" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C230" s="82"/>
+      <c r="D230" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E230" s="60"/>
+      <c r="F230" s="60"/>
+      <c r="G230" s="27"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="27"/>
+      <c r="J230" s="27"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A231" s="32">
+        <v>7</v>
+      </c>
+      <c r="B231" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C231" s="82"/>
+      <c r="D231" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E231" s="60"/>
+      <c r="F231" s="60"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A232" s="32">
+        <v>8</v>
+      </c>
+      <c r="B232" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" s="82"/>
+      <c r="D232" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E232" s="60"/>
+      <c r="F232" s="60"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A233" s="32">
+        <v>9</v>
+      </c>
+      <c r="B233" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C233" s="82"/>
+      <c r="D233" s="84">
+        <v>45265</v>
+      </c>
+      <c r="E233" s="60"/>
+      <c r="F233" s="60"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="27"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A234" s="32">
+        <v>10</v>
+      </c>
+      <c r="B234" s="82"/>
+      <c r="C234" s="82"/>
+      <c r="D234" s="60"/>
+      <c r="E234" s="60"/>
+      <c r="F234" s="60"/>
+      <c r="G234" s="27"/>
+      <c r="H234" s="27"/>
+      <c r="I234" s="27"/>
+      <c r="J234" s="27"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A235" s="32">
+        <v>11</v>
+      </c>
+      <c r="B235" s="82"/>
+      <c r="C235" s="82"/>
+      <c r="D235" s="60"/>
+      <c r="E235" s="60"/>
+      <c r="F235" s="60"/>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="27"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A236" s="80"/>
+      <c r="B236" s="82"/>
+      <c r="C236" s="82"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="81"/>
+      <c r="F236" s="81"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A237" s="80"/>
+      <c r="B237" s="81"/>
+      <c r="C237" s="81"/>
+      <c r="D237" s="81"/>
+      <c r="E237" s="81"/>
+      <c r="F237" s="81"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A238" s="80"/>
+      <c r="B238" s="81"/>
+      <c r="C238" s="81"/>
+      <c r="D238" s="81"/>
+      <c r="E238" s="81"/>
+      <c r="F238" s="81"/>
+      <c r="G238" s="27"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="27"/>
+      <c r="J238" s="27"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A239" s="34"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="61"/>
+      <c r="D239" s="61"/>
+      <c r="E239" s="61"/>
+      <c r="F239" s="61"/>
+      <c r="G239" s="26"/>
+      <c r="H239" s="26"/>
+      <c r="I239" s="26"/>
+      <c r="J239" s="26"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A240" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B240" s="68"/>
+      <c r="C240" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="27"/>
+      <c r="G240" s="27"/>
+      <c r="H240" s="27"/>
+      <c r="I240" s="27"/>
+      <c r="J240" s="27"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C241" s="34"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A242" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C242" s="69"/>
+      <c r="D242" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E242" s="72"/>
+      <c r="F242" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G242" s="74"/>
+      <c r="H242" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I242" s="59"/>
+      <c r="J242" s="59"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A243" s="69"/>
+      <c r="B243" s="70"/>
+      <c r="C243" s="70"/>
+      <c r="D243" s="73"/>
+      <c r="E243" s="73"/>
+      <c r="F243" s="74"/>
+      <c r="G243" s="74"/>
+      <c r="H243" s="59"/>
+      <c r="I243" s="59"/>
+      <c r="J243" s="59"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A244" s="32">
+        <v>1</v>
+      </c>
+      <c r="B244" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C244" s="77"/>
+      <c r="D244" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E244" s="60"/>
+      <c r="F244" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G244" s="60"/>
+      <c r="H244" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I244" s="60"/>
+      <c r="J244" s="60"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A245" s="32">
+        <v>2</v>
+      </c>
+      <c r="B245" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C245" s="77"/>
+      <c r="D245" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E245" s="60"/>
+      <c r="F245" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G245" s="60"/>
+      <c r="H245" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I245" s="60"/>
+      <c r="J245" s="60"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A246" s="32">
+        <v>3</v>
+      </c>
+      <c r="B246" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C246" s="77"/>
+      <c r="D246" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E246" s="60"/>
+      <c r="F246" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G246" s="60"/>
+      <c r="H246" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I246" s="60"/>
+      <c r="J246" s="60"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A248" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B248" s="68"/>
+      <c r="C248" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D248" s="27"/>
+      <c r="E248" s="27"/>
+      <c r="F248" s="27"/>
+      <c r="G248" s="27"/>
+      <c r="H248" s="27"/>
+      <c r="I248" s="27"/>
+      <c r="J248" s="27"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C249" s="34"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A250" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C250" s="69"/>
+      <c r="D250" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E250" s="72"/>
+      <c r="F250" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G250" s="74"/>
+      <c r="H250" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I250" s="59"/>
+      <c r="J250" s="59"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A251" s="69"/>
+      <c r="B251" s="70"/>
+      <c r="C251" s="70"/>
+      <c r="D251" s="73"/>
+      <c r="E251" s="73"/>
+      <c r="F251" s="74"/>
+      <c r="G251" s="74"/>
+      <c r="H251" s="59"/>
+      <c r="I251" s="59"/>
+      <c r="J251" s="59"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A252" s="32">
+        <v>1</v>
+      </c>
+      <c r="B252" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C252" s="77"/>
+      <c r="D252" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E252" s="60"/>
+      <c r="F252" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G252" s="60"/>
+      <c r="H252" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I252" s="60"/>
+      <c r="J252" s="60"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A253" s="32">
+        <v>2</v>
+      </c>
+      <c r="B253" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C253" s="77"/>
+      <c r="D253" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E253" s="60"/>
+      <c r="F253" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G253" s="60"/>
+      <c r="H253" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I253" s="60"/>
+      <c r="J253" s="60"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A254" s="32">
+        <v>3</v>
+      </c>
+      <c r="B254" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C254" s="77"/>
+      <c r="D254" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E254" s="60"/>
+      <c r="F254" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G254" s="60"/>
+      <c r="H254" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I254" s="60"/>
+      <c r="J254" s="60"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A258" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A259" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="76"/>
+      <c r="C259" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E259" s="76"/>
+      <c r="F259" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G259" s="27"/>
+      <c r="H259" s="27"/>
+      <c r="I259" s="27"/>
+      <c r="J259" s="27"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A260" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B260" s="76"/>
+      <c r="C260" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D260" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E260" s="76"/>
+      <c r="F260" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G260" s="79"/>
+      <c r="H260" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I260" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J260" s="29"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A261" s="27"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="27"/>
+      <c r="E261" s="27"/>
+      <c r="F261" s="27"/>
+      <c r="G261" s="27"/>
+      <c r="H261" s="27"/>
+      <c r="I261" s="27"/>
+      <c r="J261" s="27"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A262" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B262" s="63"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="30"/>
+      <c r="E262" s="30"/>
+      <c r="F262" s="30"/>
+      <c r="G262" s="27"/>
+      <c r="H262" s="27"/>
+      <c r="I262" s="27"/>
+      <c r="J262" s="27"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A263" s="30"/>
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="30"/>
+      <c r="F263" s="30"/>
+      <c r="G263" s="27"/>
+      <c r="H263" s="27"/>
+      <c r="I263" s="27"/>
+      <c r="J263" s="27"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A264" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B264" s="63"/>
+      <c r="C264" s="27"/>
+      <c r="D264" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E264" s="63"/>
+      <c r="F264" s="65"/>
+      <c r="G264" s="66"/>
+      <c r="H264" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I264" s="27"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A265" s="30"/>
+      <c r="B265" s="30"/>
+      <c r="C265" s="20"/>
+      <c r="G265" s="27"/>
+      <c r="H265" s="27"/>
+      <c r="I265" s="27"/>
+      <c r="J265" s="27"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A266" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B266" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C266" s="67"/>
+      <c r="D266" s="67"/>
+      <c r="E266" s="67"/>
+      <c r="F266" s="67"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A267" s="32">
+        <v>1</v>
+      </c>
+      <c r="B267" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C267" s="60"/>
+      <c r="D267" s="60"/>
+      <c r="E267" s="60"/>
+      <c r="F267" s="60"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A268" s="27"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="27"/>
+      <c r="D268" s="27"/>
+      <c r="E268" s="27"/>
+      <c r="F268" s="27"/>
+      <c r="G268" s="27"/>
+      <c r="H268" s="27"/>
+      <c r="I268" s="27"/>
+      <c r="J268" s="27"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A269" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B269" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269" s="78"/>
+      <c r="D269" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E269" s="78"/>
+      <c r="F269" s="78"/>
+      <c r="G269" s="27"/>
+      <c r="H269" s="27"/>
+      <c r="I269" s="27"/>
+      <c r="J269" s="27"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A270" s="32">
+        <v>1</v>
+      </c>
+      <c r="B270" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C270" s="83"/>
+      <c r="D270" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E270" s="60"/>
+      <c r="F270" s="60"/>
+      <c r="G270" s="27"/>
+      <c r="H270" s="27"/>
+      <c r="I270" s="27"/>
+      <c r="J270" s="27"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A271" s="32">
+        <v>2</v>
+      </c>
+      <c r="B271" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C271" s="86"/>
+      <c r="D271" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E271" s="60"/>
+      <c r="F271" s="60"/>
+      <c r="G271" s="27"/>
+      <c r="H271" s="27"/>
+      <c r="I271" s="27"/>
+      <c r="J271" s="27"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A272" s="32">
+        <v>3</v>
+      </c>
+      <c r="B272" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C272" s="82"/>
+      <c r="D272" s="60">
+        <v>13</v>
+      </c>
+      <c r="E272" s="60"/>
+      <c r="F272" s="60"/>
+      <c r="G272" s="27"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="27"/>
+      <c r="J272" s="27"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A273" s="32">
+        <v>4</v>
+      </c>
+      <c r="B273" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273" s="82"/>
+      <c r="D273" s="60">
+        <v>12</v>
+      </c>
+      <c r="E273" s="60"/>
+      <c r="F273" s="60"/>
+      <c r="G273" s="27"/>
+      <c r="H273" s="27"/>
+      <c r="I273" s="27"/>
+      <c r="J273" s="27"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A274" s="32">
+        <v>5</v>
+      </c>
+      <c r="B274" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C274" s="82"/>
+      <c r="D274" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E274" s="60"/>
+      <c r="F274" s="60"/>
+      <c r="G274" s="27"/>
+      <c r="H274" s="27"/>
+      <c r="I274" s="27"/>
+      <c r="J274" s="27"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A275" s="32">
+        <v>6</v>
+      </c>
+      <c r="B275" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C275" s="82"/>
+      <c r="D275" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E275" s="60"/>
+      <c r="F275" s="60"/>
+      <c r="G275" s="27"/>
+      <c r="H275" s="27"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="27"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A276" s="32">
+        <v>7</v>
+      </c>
+      <c r="B276" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C276" s="82"/>
+      <c r="D276" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E276" s="60"/>
+      <c r="F276" s="60"/>
+      <c r="G276" s="27"/>
+      <c r="H276" s="27"/>
+      <c r="I276" s="27"/>
+      <c r="J276" s="27"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A277" s="32">
+        <v>8</v>
+      </c>
+      <c r="B277" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C277" s="82"/>
+      <c r="D277" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E277" s="60"/>
+      <c r="F277" s="60"/>
+      <c r="G277" s="27"/>
+      <c r="H277" s="27"/>
+      <c r="I277" s="27"/>
+      <c r="J277" s="27"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A278" s="32">
+        <v>9</v>
+      </c>
+      <c r="B278" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C278" s="82"/>
+      <c r="D278" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E278" s="60"/>
+      <c r="F278" s="60"/>
+      <c r="G278" s="27"/>
+      <c r="H278" s="27"/>
+      <c r="I278" s="27"/>
+      <c r="J278" s="27"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A279" s="32">
+        <v>10</v>
+      </c>
+      <c r="B279" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C279" s="82"/>
+      <c r="D279" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E279" s="60"/>
+      <c r="F279" s="60"/>
+      <c r="G279" s="27"/>
+      <c r="H279" s="27"/>
+      <c r="I279" s="27"/>
+      <c r="J279" s="27"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A280" s="32">
+        <v>11</v>
+      </c>
+      <c r="B280" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C280" s="82"/>
+      <c r="D280" s="84">
+        <v>45265</v>
+      </c>
+      <c r="E280" s="60"/>
+      <c r="F280" s="60"/>
+      <c r="G280" s="27"/>
+      <c r="H280" s="27"/>
+      <c r="I280" s="27"/>
+      <c r="J280" s="27"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A281" s="32">
+        <v>12</v>
+      </c>
+      <c r="B281" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C281" s="82"/>
+      <c r="D281" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E281" s="60"/>
+      <c r="F281" s="60"/>
+      <c r="G281" s="27"/>
+      <c r="H281" s="27"/>
+      <c r="I281" s="27"/>
+      <c r="J281" s="27"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A282" s="32">
+        <v>13</v>
+      </c>
+      <c r="B282" s="82"/>
+      <c r="C282" s="82"/>
+      <c r="D282" s="60"/>
+      <c r="E282" s="60"/>
+      <c r="F282" s="60"/>
+      <c r="G282" s="27"/>
+      <c r="H282" s="27"/>
+      <c r="I282" s="27"/>
+      <c r="J282" s="27"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A283" s="32">
+        <v>14</v>
+      </c>
+      <c r="B283" s="82"/>
+      <c r="C283" s="82"/>
+      <c r="D283" s="60"/>
+      <c r="E283" s="60"/>
+      <c r="F283" s="60"/>
+      <c r="G283" s="27"/>
+      <c r="H283" s="27"/>
+      <c r="I283" s="27"/>
+      <c r="J283" s="27"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A284" s="80"/>
+      <c r="B284" s="82"/>
+      <c r="C284" s="82"/>
+      <c r="D284" s="81"/>
+      <c r="E284" s="81"/>
+      <c r="F284" s="81"/>
+      <c r="G284" s="27"/>
+      <c r="H284" s="27"/>
+      <c r="I284" s="27"/>
+      <c r="J284" s="27"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A285" s="80"/>
+      <c r="B285" s="81"/>
+      <c r="C285" s="81"/>
+      <c r="D285" s="81"/>
+      <c r="E285" s="81"/>
+      <c r="F285" s="81"/>
+      <c r="G285" s="27"/>
+      <c r="H285" s="27"/>
+      <c r="I285" s="27"/>
+      <c r="J285" s="27"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A286" s="80"/>
+      <c r="B286" s="81"/>
+      <c r="C286" s="81"/>
+      <c r="D286" s="81"/>
+      <c r="E286" s="81"/>
+      <c r="F286" s="81"/>
+      <c r="G286" s="27"/>
+      <c r="H286" s="27"/>
+      <c r="I286" s="27"/>
+      <c r="J286" s="27"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A287" s="34"/>
+      <c r="B287" s="61"/>
+      <c r="C287" s="61"/>
+      <c r="D287" s="61"/>
+      <c r="E287" s="61"/>
+      <c r="F287" s="61"/>
+      <c r="G287" s="26"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A288" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B288" s="68"/>
+      <c r="C288" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D288" s="27"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="27"/>
+      <c r="G288" s="27"/>
+      <c r="H288" s="27"/>
+      <c r="I288" s="27"/>
+      <c r="J288" s="27"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C289" s="34"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A290" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B290" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" s="69"/>
+      <c r="D290" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E290" s="72"/>
+      <c r="F290" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G290" s="74"/>
+      <c r="H290" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I290" s="59"/>
+      <c r="J290" s="59"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A291" s="69"/>
+      <c r="B291" s="70"/>
+      <c r="C291" s="70"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="73"/>
+      <c r="F291" s="74"/>
+      <c r="G291" s="74"/>
+      <c r="H291" s="59"/>
+      <c r="I291" s="59"/>
+      <c r="J291" s="59"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A292" s="32">
+        <v>1</v>
+      </c>
+      <c r="B292" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C292" s="77"/>
+      <c r="D292" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E292" s="60"/>
+      <c r="F292" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G292" s="60"/>
+      <c r="H292" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I292" s="60"/>
+      <c r="J292" s="60"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A293" s="32">
+        <v>2</v>
+      </c>
+      <c r="B293" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C293" s="77"/>
+      <c r="D293" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E293" s="60"/>
+      <c r="F293" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G293" s="60"/>
+      <c r="H293" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I293" s="60"/>
+      <c r="J293" s="60"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A294" s="32">
+        <v>3</v>
+      </c>
+      <c r="B294" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C294" s="77"/>
+      <c r="D294" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E294" s="60"/>
+      <c r="F294" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G294" s="60"/>
+      <c r="H294" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I294" s="60"/>
+      <c r="J294" s="60"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A296" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B296" s="68"/>
+      <c r="C296" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D296" s="27"/>
+      <c r="E296" s="27"/>
+      <c r="F296" s="27"/>
+      <c r="G296" s="27"/>
+      <c r="H296" s="27"/>
+      <c r="I296" s="27"/>
+      <c r="J296" s="27"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C297" s="34"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A298" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B298" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C298" s="69"/>
+      <c r="D298" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E298" s="72"/>
+      <c r="F298" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G298" s="74"/>
+      <c r="H298" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I298" s="59"/>
+      <c r="J298" s="59"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A299" s="69"/>
+      <c r="B299" s="70"/>
+      <c r="C299" s="70"/>
+      <c r="D299" s="73"/>
+      <c r="E299" s="73"/>
+      <c r="F299" s="74"/>
+      <c r="G299" s="74"/>
+      <c r="H299" s="59"/>
+      <c r="I299" s="59"/>
+      <c r="J299" s="59"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A300" s="32">
+        <v>1</v>
+      </c>
+      <c r="B300" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C300" s="77"/>
+      <c r="D300" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E300" s="60"/>
+      <c r="F300" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G300" s="60"/>
+      <c r="H300" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I300" s="60"/>
+      <c r="J300" s="60"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A301" s="32">
+        <v>2</v>
+      </c>
+      <c r="B301" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" s="77"/>
+      <c r="D301" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E301" s="60"/>
+      <c r="F301" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G301" s="60"/>
+      <c r="H301" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I301" s="60"/>
+      <c r="J301" s="60"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A302" s="32">
+        <v>3</v>
+      </c>
+      <c r="B302" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C302" s="77"/>
+      <c r="D302" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E302" s="60"/>
+      <c r="F302" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G302" s="60"/>
+      <c r="H302" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I302" s="60"/>
+      <c r="J302" s="60"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A306" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A307" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" s="76"/>
+      <c r="C307" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D307" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E307" s="76"/>
+      <c r="F307" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G307" s="27"/>
+      <c r="H307" s="27"/>
+      <c r="I307" s="27"/>
+      <c r="J307" s="27"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A308" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B308" s="76"/>
+      <c r="C308" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D308" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E308" s="76"/>
+      <c r="F308" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="G308" s="79"/>
+      <c r="H308" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I308" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J308" s="29"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A309" s="27"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="27"/>
+      <c r="D309" s="27"/>
+      <c r="E309" s="27"/>
+      <c r="F309" s="27"/>
+      <c r="G309" s="27"/>
+      <c r="H309" s="27"/>
+      <c r="I309" s="27"/>
+      <c r="J309" s="27"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A310" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B310" s="63"/>
+      <c r="C310" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D310" s="30"/>
+      <c r="E310" s="30"/>
+      <c r="F310" s="30"/>
+      <c r="G310" s="27"/>
+      <c r="H310" s="27"/>
+      <c r="I310" s="27"/>
+      <c r="J310" s="27"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A311" s="30"/>
+      <c r="B311" s="30"/>
+      <c r="C311" s="30"/>
+      <c r="D311" s="30"/>
+      <c r="E311" s="30"/>
+      <c r="F311" s="30"/>
+      <c r="G311" s="27"/>
+      <c r="H311" s="27"/>
+      <c r="I311" s="27"/>
+      <c r="J311" s="27"/>
+    </row>
+    <row r="312" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A312" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B312" s="63"/>
+      <c r="C312" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D312" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E312" s="63"/>
+      <c r="F312" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G312" s="66"/>
+      <c r="H312" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I312" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A313" s="30"/>
+      <c r="B313" s="30"/>
+      <c r="C313" s="20"/>
+      <c r="G313" s="27"/>
+      <c r="H313" s="27"/>
+      <c r="I313" s="27"/>
+      <c r="J313" s="27"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A314" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B314" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C314" s="67"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="67"/>
+      <c r="F314" s="67"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A315" s="32">
+        <v>1</v>
+      </c>
+      <c r="B315" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C315" s="60"/>
+      <c r="D315" s="60"/>
+      <c r="E315" s="60"/>
+      <c r="F315" s="60"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A316" s="32">
+        <v>2</v>
+      </c>
+      <c r="B316" s="60"/>
+      <c r="C316" s="60"/>
+      <c r="D316" s="60"/>
+      <c r="E316" s="60"/>
+      <c r="F316" s="60"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A317" s="27"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="27"/>
+      <c r="D317" s="27"/>
+      <c r="E317" s="27"/>
+      <c r="F317" s="27"/>
+      <c r="G317" s="27"/>
+      <c r="H317" s="27"/>
+      <c r="I317" s="27"/>
+      <c r="J317" s="27"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A318" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B318" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C318" s="78"/>
+      <c r="D318" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E318" s="78"/>
+      <c r="F318" s="78"/>
+      <c r="G318" s="27"/>
+      <c r="H318" s="27"/>
+      <c r="I318" s="27"/>
+      <c r="J318" s="27"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A319" s="32">
+        <v>1</v>
+      </c>
+      <c r="B319" s="60"/>
+      <c r="C319" s="60"/>
+      <c r="D319" s="60"/>
+      <c r="E319" s="60"/>
+      <c r="F319" s="60"/>
+      <c r="G319" s="27"/>
+      <c r="H319" s="27"/>
+      <c r="I319" s="27"/>
+      <c r="J319" s="27"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A320" s="34"/>
+      <c r="B320" s="61"/>
+      <c r="C320" s="61"/>
+      <c r="D320" s="61"/>
+      <c r="E320" s="61"/>
+      <c r="F320" s="61"/>
+      <c r="G320" s="26"/>
+      <c r="H320" s="26"/>
+      <c r="I320" s="26"/>
+      <c r="J320" s="26"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A321" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B321" s="68"/>
+      <c r="C321" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D321" s="27"/>
+      <c r="E321" s="27"/>
+      <c r="F321" s="27"/>
+      <c r="G321" s="27"/>
+      <c r="H321" s="27"/>
+      <c r="I321" s="27"/>
+      <c r="J321" s="27"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C322" s="34"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A323" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B323" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C323" s="69"/>
+      <c r="D323" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E323" s="72"/>
+      <c r="F323" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G323" s="74"/>
+      <c r="H323" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I323" s="59"/>
+      <c r="J323" s="59"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A324" s="69"/>
+      <c r="B324" s="70"/>
+      <c r="C324" s="70"/>
+      <c r="D324" s="73"/>
+      <c r="E324" s="73"/>
+      <c r="F324" s="74"/>
+      <c r="G324" s="74"/>
+      <c r="H324" s="59"/>
+      <c r="I324" s="59"/>
+      <c r="J324" s="59"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A325" s="32">
+        <v>1</v>
+      </c>
+      <c r="B325" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C325" s="77"/>
+      <c r="D325" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="E325" s="60"/>
+      <c r="F325" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G325" s="60"/>
+      <c r="H325" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I325" s="60"/>
+      <c r="J325" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
+  <mergeCells count="532">
+    <mergeCell ref="H323:J324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="H325:J325"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A323:A324"/>
+    <mergeCell ref="B323:C324"/>
+    <mergeCell ref="D323:E324"/>
+    <mergeCell ref="F323:G324"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="H301:J301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="H302:J302"/>
+    <mergeCell ref="H298:J299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:C299"/>
+    <mergeCell ref="D298:E299"/>
+    <mergeCell ref="F298:G299"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="H294:J294"/>
+    <mergeCell ref="H290:J291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:C291"/>
+    <mergeCell ref="D290:E291"/>
+    <mergeCell ref="F290:G291"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="D280:F280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="D281:F281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="D282:F282"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="D271:F271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="D272:F272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="D269:F269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="D270:F270"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:J253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="H254:J254"/>
+    <mergeCell ref="H250:J251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:J252"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:C251"/>
+    <mergeCell ref="D250:E251"/>
+    <mergeCell ref="F250:G251"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="H245:J245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="H246:J246"/>
+    <mergeCell ref="H242:J243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="H244:J244"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:C243"/>
+    <mergeCell ref="D242:E243"/>
+    <mergeCell ref="F242:G243"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="H210:J210"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="H208:J208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:J209"/>
+    <mergeCell ref="B206:C207"/>
+    <mergeCell ref="D206:E207"/>
+    <mergeCell ref="F206:G207"/>
+    <mergeCell ref="H206:J207"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:J200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="B198:C199"/>
+    <mergeCell ref="D198:E199"/>
+    <mergeCell ref="F198:G199"/>
+    <mergeCell ref="H198:J199"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="H158:J159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:C159"/>
+    <mergeCell ref="D158:E159"/>
+    <mergeCell ref="F158:G159"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="H150:J151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:C151"/>
+    <mergeCell ref="D150:E151"/>
+    <mergeCell ref="F150:G151"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H110:J111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C111"/>
+    <mergeCell ref="D110:E111"/>
+    <mergeCell ref="F110:G111"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H102:J103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="D102:E103"/>
+    <mergeCell ref="F102:G103"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="F66:G67"/>
+    <mergeCell ref="H66:J67"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:E43"/>
-    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
@@ -4911,41 +9763,25 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:E59"/>
+    <mergeCell ref="F58:G59"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4953,6 +9789,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D27483CF1B63FA4AA03D15E9EA85AD57" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc40f05d5172330021a6e9de5317fd1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c078926d-f3db-4b74-bbd0-f33b483d4b1e" xmlns:ns4="806a97cf-37b5-43d8-9f6a-27e74bb9243f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e98100bc02576a7c959853f71e43f81a" ns3:_="" ns4:_="">
     <xsd:import namespace="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
@@ -5169,15 +10014,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5185,6 +10021,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E2B2261-6191-43A6-8C41-B739157DC3A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5199,14 +10043,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
